--- a/project-2/results/spreadsheet/openmpi.xlsx
+++ b/project-2/results/spreadsheet/openmpi.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="openmpi" sheetId="1" r:id="rId1"/>
-    <sheet name="2cpu" sheetId="2" r:id="rId2"/>
-    <sheet name="4cpu" sheetId="3" r:id="rId3"/>
-    <sheet name="8cpu" sheetId="4" r:id="rId4"/>
+    <sheet name="1cpu" sheetId="5" r:id="rId2"/>
+    <sheet name="2cpu" sheetId="2" r:id="rId3"/>
+    <sheet name="4cpu" sheetId="3" r:id="rId4"/>
+    <sheet name="8cpu" sheetId="4" r:id="rId5"/>
+    <sheet name="Conclusions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>exp</t>
   </si>
@@ -40,7 +42,19 @@
     <t>times (s)</t>
   </si>
   <si>
-    <t>process</t>
+    <t>processes</t>
+  </si>
+  <si>
+    <t>4 (1/comp)</t>
+  </si>
+  <si>
+    <t>8 (2/comp)</t>
+  </si>
+  <si>
+    <t>16 (4/comp)</t>
+  </si>
+  <si>
+    <t>32 (8/comp)</t>
   </si>
 </sst>
 </file>
@@ -184,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +376,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -605,21 +637,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,9 +661,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -701,44 +741,53 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI on 4 computers (1 core enabled)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="10"/>
-      <c:rotY val="240"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:line3DChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$E$2</c:f>
+              <c:f>'1cpu'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>time (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'1cpu'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -768,533 +817,41 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'2cpu'!$E$3:$E$10</c:f>
+              <c:f>'1cpu'!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.202574</c:v>
+                  <c:v>3.8092899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46238899999999999</c:v>
+                  <c:v>0.158497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0061800000000001</c:v>
+                  <c:v>0.41505700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1344500000000002</c:v>
+                  <c:v>0.92916500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4715699999999998</c:v>
+                  <c:v>1.98807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2749500000000005</c:v>
+                  <c:v>4.17164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.092500000000001</c:v>
+                  <c:v>8.6031099999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.7898</c:v>
+                  <c:v>17.634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2cpu'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2cpu'!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.124948</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33415299999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75929599999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9073100000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4438399999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0496299999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.585100000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29.834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2cpu'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2cpu'!$G$3:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.126997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30515300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69585300000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4769099999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0956999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4298000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.2432</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.2013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2cpu'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2cpu'!$H$3:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.8562999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.240649</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55779699999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.35947</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5774300000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0350299999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.011100000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.584800000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2cpu'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2cpu'!$I$3:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.14347199999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.205155</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50622100000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.10615</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.35982</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8794500000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.311199999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.198599999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2cpu'!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2cpu'!$J$3:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.8925199999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.169706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43610599999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97115300000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0751200000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4083199999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.9842399999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.9953</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2cpu'!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2cpu'!$K$3:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.2406100000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17446700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41058</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91961899999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1307700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9708299999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2714400000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.037400000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1304,63 +861,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89797632"/>
-        <c:axId val="216449600"/>
-        <c:axId val="220164736"/>
-      </c:line3DChart>
-      <c:catAx>
-        <c:axId val="89797632"/>
+        <c:axId val="213172224"/>
+        <c:axId val="213172800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="213172224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Exponent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216449600"/>
+        <c:crossAx val="213172800"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="216449600"/>
+        <c:axId val="213172800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89797632"/>
+        <c:crossAx val="213172224"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="220164736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216449600"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1387,10 +963,34 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI on 4 computers (2 cores enabled)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="20"/>
-      <c:rotY val="230"/>
+      <c:rotX val="10"/>
+      <c:rotY val="240"/>
       <c:rAngAx val="0"/>
       <c:perspective val="30"/>
     </c:view3D>
@@ -1404,7 +1004,17 @@
       <c:thickness val="0"/>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.1323426598171824E-2"/>
+          <c:y val="0.11543911949277945"/>
+          <c:w val="0.97593771847888489"/>
+          <c:h val="0.81284166639663868"/>
+        </c:manualLayout>
+      </c:layout>
       <c:line3DChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1413,18 +1023,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$E$2</c:f>
+              <c:f>'2cpu'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1457,33 +1067,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$E$3:$E$10</c:f>
+              <c:f>'2cpu'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.202156</c:v>
+                  <c:v>0.202574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54795400000000005</c:v>
+                  <c:v>0.46238899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19336</c:v>
+                  <c:v>1.0061800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4264700000000001</c:v>
+                  <c:v>2.1344500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1725700000000003</c:v>
+                  <c:v>4.4715699999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.735300000000001</c:v>
+                  <c:v>9.2749500000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.1404</c:v>
+                  <c:v>19.092500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.081499999999998</c:v>
+                  <c:v>39.7898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,18 +1105,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$F$2</c:f>
+              <c:f>'2cpu'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1539,33 +1149,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$F$3:$F$10</c:f>
+              <c:f>'2cpu'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.17732999999999999</c:v>
+                  <c:v>0.124948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46018900000000001</c:v>
+                  <c:v>0.33415299999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99617</c:v>
+                  <c:v>0.75929599999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.08948</c:v>
+                  <c:v>1.9073100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2495799999999999</c:v>
+                  <c:v>3.4438399999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7269299999999994</c:v>
+                  <c:v>7.0496299999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.946300000000001</c:v>
+                  <c:v>14.585100000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.240400000000001</c:v>
+                  <c:v>29.834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,18 +1187,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$G$2</c:f>
+              <c:f>'2cpu'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1621,33 +1231,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$G$3:$G$10</c:f>
+              <c:f>'2cpu'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14124900000000001</c:v>
+                  <c:v>0.126997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37641400000000003</c:v>
+                  <c:v>0.30515300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86544399999999999</c:v>
+                  <c:v>0.69585300000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8866499999999999</c:v>
+                  <c:v>1.4769099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.72323</c:v>
+                  <c:v>3.0956999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7308599999999998</c:v>
+                  <c:v>6.4298000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.8194</c:v>
+                  <c:v>13.2432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.047699999999999</c:v>
+                  <c:v>27.2013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,18 +1269,18 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$H$2</c:f>
+              <c:f>'2cpu'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1703,33 +1313,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$H$3:$H$10</c:f>
+              <c:f>'2cpu'!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.12825</c:v>
+                  <c:v>6.8562999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35441400000000001</c:v>
+                  <c:v>0.240649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78533600000000003</c:v>
+                  <c:v>0.55779699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8272600000000001</c:v>
+                  <c:v>1.35947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.71658</c:v>
+                  <c:v>2.5774300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3381600000000002</c:v>
+                  <c:v>6.0350299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.0207</c:v>
+                  <c:v>11.011100000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.337299999999999</c:v>
+                  <c:v>22.584800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,18 +1351,18 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$I$2</c:f>
+              <c:f>'2cpu'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1785,33 +1395,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$I$3:$I$10</c:f>
+              <c:f>'2cpu'!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.12872600000000001</c:v>
+                  <c:v>0.14347199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35894500000000001</c:v>
+                  <c:v>0.205155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80824700000000005</c:v>
+                  <c:v>0.50622100000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7988500000000001</c:v>
+                  <c:v>1.10615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.84307</c:v>
+                  <c:v>2.35982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4363799999999998</c:v>
+                  <c:v>5.8794500000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.0954</c:v>
+                  <c:v>11.311199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.565799999999999</c:v>
+                  <c:v>22.198599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,18 +1433,18 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$J$2</c:f>
+              <c:f>'2cpu'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1867,33 +1477,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$J$3:$J$10</c:f>
+              <c:f>'2cpu'!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.116087</c:v>
+                  <c:v>5.8925199999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29639599999999999</c:v>
+                  <c:v>0.169706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72602</c:v>
+                  <c:v>0.43610599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6149199999999999</c:v>
+                  <c:v>0.97115300000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.28993</c:v>
+                  <c:v>2.0751200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7739900000000004</c:v>
+                  <c:v>5.4083199999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.6356</c:v>
+                  <c:v>8.9842399999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.204599999999999</c:v>
+                  <c:v>18.9953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,18 +1515,18 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$K$2</c:f>
+              <c:f>'2cpu'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1949,550 +1559,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$K$3:$K$10</c:f>
+              <c:f>'2cpu'!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.2593199999999997E-2</c:v>
+                  <c:v>4.2406100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25866600000000001</c:v>
+                  <c:v>0.17446700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66867100000000002</c:v>
+                  <c:v>0.41058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4891000000000001</c:v>
+                  <c:v>0.91961899999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9281999999999999</c:v>
+                  <c:v>2.1307700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2568200000000003</c:v>
+                  <c:v>3.9708299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.658300000000001</c:v>
+                  <c:v>8.2714400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.516200000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4cpu'!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4cpu'!$L$3:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.9006899999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25300600000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61670899999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.37734</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8680599999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8241800000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.4772</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.048500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4cpu'!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4cpu'!$M$3:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7.5248999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.223051</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.576326</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3138099999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.78965</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8189700000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.102600000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.328900000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4cpu'!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4cpu'!$N$3:$N$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.1806000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21809200000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54298599999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2324900000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6528399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2941000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.737299999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.949100000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4cpu'!$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4cpu'!$O$3:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.96891E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20147100000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48910100000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.16018</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4825499999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9454900000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.0726</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.101199999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4cpu'!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4cpu'!$P$3:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7.3552099999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17655599999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.47106900000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.08585</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.34945</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8201000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.6757799999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.075600000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4cpu'!$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4cpu'!$Q$3:$Q$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.9418899999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17577200000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46311099999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0476399999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.27494</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6124900000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.6100300000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.139600000000002</c:v>
+                  <c:v>17.037400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,22 +1600,48 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43548672"/>
-        <c:axId val="90600512"/>
-        <c:axId val="217491328"/>
+        <c:axId val="214265856"/>
+        <c:axId val="213175104"/>
+        <c:axId val="213197440"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="43548672"/>
+        <c:axId val="214265856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.12688791111645084"/>
+              <c:y val="0.79816078545737335"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90600512"/>
+        <c:crossAx val="213175104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2530,40 +1649,87 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90600512"/>
+        <c:axId val="213175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.95948642910726933"/>
+              <c:y val="0.34963935063672597"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43548672"/>
+        <c:crossAx val="214265856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="217491328"/>
+        <c:axId val="213197440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.61196534006111303"/>
+              <c:y val="0.8804653122063445"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90600512"/>
+        <c:crossAx val="213175104"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2590,6 +1756,1340 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI on 4 computers (4 cores enabled)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="230"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.2201885745978924E-2"/>
+          <c:y val="7.6245917325507423E-2"/>
+          <c:w val="0.95331114808652251"/>
+          <c:h val="0.84461856728194096"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.202156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54795400000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4264700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1725700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.735300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.1404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.081499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.17732999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46018900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.08948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2495799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7269299999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.946300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.240400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14124900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37641400000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86544399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8866499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.72323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7308599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.8194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.047699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.12825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35441400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78533600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8272600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.71658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3381600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.0207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.337299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.12872600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35894500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80824700000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7988500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.84307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4363799999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.0954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.565799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.116087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29639599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6149199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.28993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7739900000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.204599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.2593199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25866600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66867100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4891000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9281999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2568200000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.658300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.516200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.9006899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25300600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61670899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8680599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8241800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4772</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.048500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.5248999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.223051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.576326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3138099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.78965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8189700000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.102600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.328900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$N$3:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.1806000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21809200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54298599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2324900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6528399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.737299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.949100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.96891E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20147100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48910100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.16018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4825499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9454900000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0726</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.101199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$P$3:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.3552099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17655599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47106900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.34945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6757799999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.075600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cpu'!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.9418899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17577200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46311099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0476399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.27494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6124900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6100300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.139600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214268928"/>
+        <c:axId val="213177408"/>
+        <c:axId val="213199360"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="214268928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.15226472781878669"/>
+              <c:y val="0.85321316505497913"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="213177408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213177408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93539284866544525"/>
+              <c:y val="0.3323989287489777"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214268928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="213199360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.63832110577915058"/>
+              <c:y val="0.82605770001764045"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="213177408"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI on 4 computers (8 cores enabled)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="20"/>
@@ -2607,7 +3107,17 @@
       <c:thickness val="0"/>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5804849488870926E-2"/>
+          <c:y val="0.11786431107876222"/>
+          <c:w val="0.88320655735523557"/>
+          <c:h val="0.79838902490129915"/>
+        </c:manualLayout>
+      </c:layout>
       <c:line3DChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4754,22 +5264,48 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170533376"/>
-        <c:axId val="335955648"/>
-        <c:axId val="246025344"/>
+        <c:axId val="213211648"/>
+        <c:axId val="214475328"/>
+        <c:axId val="214712320"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="170533376"/>
+        <c:axId val="213211648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.7139573332801072E-2"/>
+              <c:y val="0.83337766602704089"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335955648"/>
+        <c:crossAx val="214475328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4777,40 +5313,294 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335955648"/>
+        <c:axId val="214475328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.94913791669577441"/>
+              <c:y val="0.32603255475418513"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170533376"/>
+        <c:crossAx val="213211648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="246025344"/>
+        <c:axId val="214712320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.53791909091211509"/>
+              <c:y val="0.84716910386201727"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335955648"/>
+        <c:crossAx val="214475328"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPI on 4 computers for 4, 8, 16 &amp; 32 processes - exp 32</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Conclusions!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Conclusions!$E$2:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4 (1/comp)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8 (2/comp)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16 (4/comp)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32 (8/comp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Conclusions!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.037400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.139600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.650700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="213209088"/>
+        <c:axId val="214477632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213209088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214477632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214477632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="213209088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4827,20 +5617,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4862,16 +5652,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4897,20 +5687,90 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5218,7 +6078,7 @@
   <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12615,10 +13475,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>33554432</v>
+      </c>
+      <c r="B2">
+        <v>2063689</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>3.8092899999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>67108864</v>
+      </c>
+      <c r="B3">
+        <v>3957809</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>0.158497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>134217728</v>
+      </c>
+      <c r="B4">
+        <v>7603553</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>0.41505700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>268435456</v>
+      </c>
+      <c r="B5">
+        <v>14630843</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>0.92916500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>536870912</v>
+      </c>
+      <c r="B6">
+        <v>28192750</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>1.98807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1073741824</v>
+      </c>
+      <c r="B7">
+        <v>54400028</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>4.17164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2147483648</v>
+      </c>
+      <c r="B8">
+        <v>105097565</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>8.6031099999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4294967296</v>
+      </c>
+      <c r="B9">
+        <v>203280221</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>17.634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12642,15 +13702,15 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
@@ -12688,25 +13748,25 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="13">
         <v>0.202574</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.124948</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.126997</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="19">
         <v>6.8562999999999999E-2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>0.14347199999999999</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>5.8925199999999997E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="18">
         <v>4.2406100000000002E-2</v>
       </c>
       <c r="L3" s="10" t="s">
@@ -12726,25 +13786,25 @@
       <c r="D4" s="1">
         <v>26</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="14">
         <v>0.46238899999999999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>0.33415299999999998</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>0.30515300000000001</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>0.240649</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>0.205155</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="16">
         <v>0.169706</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="4">
         <v>0.17446700000000001</v>
       </c>
       <c r="L4" s="11"/>
@@ -12762,25 +13822,25 @@
       <c r="D5" s="1">
         <v>27</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="14">
         <v>1.0061800000000001</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>0.75929599999999997</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>0.69585300000000005</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>0.55779699999999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>0.50622100000000003</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>0.43610599999999999</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="16">
         <v>0.41058</v>
       </c>
       <c r="L5" s="11"/>
@@ -12798,25 +13858,25 @@
       <c r="D6" s="1">
         <v>28</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
         <v>2.1344500000000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>1.9073100000000001</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>1.4769099999999999</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>1.35947</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>1.10615</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>0.97115300000000004</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="16">
         <v>0.91961899999999996</v>
       </c>
       <c r="L6" s="11"/>
@@ -12834,25 +13894,25 @@
       <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="14">
         <v>4.4715699999999998</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>3.4438399999999998</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>3.0956999999999999</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>2.5774300000000001</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>2.35982</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="16">
         <v>2.0751200000000001</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <v>2.1307700000000001</v>
       </c>
       <c r="L7" s="11"/>
@@ -12870,25 +13930,25 @@
       <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="14">
         <v>9.2749500000000005</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>7.0496299999999996</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>6.4298000000000002</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>6.0350299999999999</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>5.8794500000000003</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <v>5.4083199999999998</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="16">
         <v>3.9708299999999999</v>
       </c>
       <c r="L8" s="11"/>
@@ -12906,25 +13966,25 @@
       <c r="D9" s="1">
         <v>31</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="14">
         <v>19.092500000000001</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>14.585100000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>13.2432</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="20">
         <v>11.011100000000001</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>11.311199999999999</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>8.9842399999999998</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="16">
         <v>8.2714400000000001</v>
       </c>
       <c r="L9" s="11"/>
@@ -12942,25 +14002,25 @@
       <c r="D10" s="1">
         <v>32</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="15">
         <v>39.7898</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>29.834</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>27.2013</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>22.584800000000001</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="5">
         <v>22.198599999999999</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <v>18.9953</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="17">
         <v>17.037400000000002</v>
       </c>
       <c r="L10" s="12"/>
@@ -12975,12 +14035,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13004,21 +14064,21 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
@@ -13074,43 +14134,43 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="13">
         <v>0.202156</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.17732999999999999</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.14124900000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0.12825</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="19">
         <v>0.12872600000000001</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>0.116087</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>7.2593199999999997E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="21">
         <v>6.9006899999999996E-2</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="19">
         <v>7.5248999999999996E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>4.1806000000000003E-2</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="19">
         <v>4.96891E-2</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="3">
         <v>7.3552099999999995E-2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="18">
         <v>5.9418899999999997E-2</v>
       </c>
       <c r="R3" s="10" t="s">
@@ -13130,43 +14190,43 @@
       <c r="D4" s="1">
         <v>26</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="14">
         <v>0.54795400000000005</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>0.46018900000000001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>0.37641400000000003</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>0.35441400000000001</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="20">
         <v>0.35894500000000001</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <v>0.29639599999999999</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="4">
         <v>0.25866600000000001</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>0.25300600000000001</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="4">
         <v>0.223051</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="4">
         <v>0.21809200000000001</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="4">
         <v>0.20147100000000001</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="4">
         <v>0.17655599999999999</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="16">
         <v>0.17577200000000001</v>
       </c>
       <c r="R4" s="11"/>
@@ -13184,43 +14244,43 @@
       <c r="D5" s="1">
         <v>27</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="14">
         <v>1.19336</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>0.99617</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>0.86544399999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>0.78533600000000003</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="20">
         <v>0.80824700000000005</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>0.72602</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <v>0.66867100000000002</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>0.61670899999999995</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>0.576326</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="4">
         <v>0.54298599999999997</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <v>0.48910100000000001</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="4">
         <v>0.47106900000000002</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="16">
         <v>0.46311099999999999</v>
       </c>
       <c r="R5" s="11"/>
@@ -13238,43 +14298,43 @@
       <c r="D6" s="1">
         <v>28</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
         <v>2.4264700000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>2.08948</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>1.8866499999999999</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>1.8272600000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>1.7988500000000001</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>1.6149199999999999</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>1.4891000000000001</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <v>1.37734</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <v>1.3138099999999999</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="4">
         <v>1.2324900000000001</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="4">
         <v>1.16018</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="4">
         <v>1.08585</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="16">
         <v>1.0476399999999999</v>
       </c>
       <c r="R6" s="11"/>
@@ -13292,43 +14352,43 @@
       <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="14">
         <v>5.1725700000000003</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>4.2495799999999999</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>3.72323</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>3.71658</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="20">
         <v>3.84307</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <v>3.28993</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <v>2.9281999999999999</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
         <v>2.8680599999999998</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="4">
         <v>2.78965</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="4">
         <v>2.6528399999999999</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="4">
         <v>2.4825499999999998</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="4">
         <v>2.34945</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="16">
         <v>2.27494</v>
       </c>
       <c r="R7" s="11"/>
@@ -13346,43 +14406,43 @@
       <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="14">
         <v>10.735300000000001</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>8.7269299999999994</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>7.7308599999999998</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>7.3381600000000002</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="20">
         <v>7.4363799999999998</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <v>6.7739900000000004</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="4">
         <v>6.2568200000000003</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
         <v>5.8241800000000001</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="4">
         <v>5.8189700000000002</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="4">
         <v>5.2941000000000003</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="4">
         <v>4.9454900000000004</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="4">
         <v>4.8201000000000001</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="16">
         <v>4.6124900000000002</v>
       </c>
       <c r="R8" s="11"/>
@@ -13400,43 +14460,43 @@
       <c r="D9" s="1">
         <v>31</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="14">
         <v>22.1404</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>17.946300000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>15.8194</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>15.0207</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="20">
         <v>15.0954</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>13.6356</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>12.658300000000001</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>12.4772</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <v>12.102600000000001</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="4">
         <v>10.737299999999999</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="4">
         <v>10.0726</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="4">
         <v>9.6757799999999996</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="16">
         <v>9.6100300000000001</v>
       </c>
       <c r="R9" s="11"/>
@@ -13454,43 +14514,43 @@
       <c r="D10" s="1">
         <v>32</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="15">
         <v>46.081499999999998</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>37.240400000000001</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>33.047699999999999</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>31.337299999999999</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="23">
         <v>31.565799999999999</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <v>28.204599999999999</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <v>26.516200000000001</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="5">
         <v>24.048500000000001</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="5">
         <v>23.328900000000001</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="5">
         <v>21.949100000000001</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="5">
         <v>21.101199999999999</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="5">
         <v>20.075600000000001</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="17">
         <v>19.139600000000002</v>
       </c>
       <c r="R10" s="12"/>
@@ -13505,12 +14565,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13534,111 +14594,111 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="13">
-        <v>8</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="E2" s="6">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
         <v>9</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="7">
         <v>10</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="7">
         <v>11</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="7">
         <v>12</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="7">
         <v>13</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="7">
         <v>14</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="7">
         <v>15</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="7">
         <v>16</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="7">
         <v>17</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="7">
         <v>18</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="7">
         <v>19</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="7">
         <v>20</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="7">
         <v>21</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="7">
         <v>22</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="7">
         <v>23</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="7">
         <v>24</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="7">
         <v>25</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="7">
         <v>26</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="7">
         <v>27</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="7">
         <v>28</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="7">
         <v>29</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AA2" s="7">
         <v>30</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AB2" s="7">
         <v>31</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AC2" s="7">
         <v>32</v>
       </c>
-      <c r="AD2" s="15"/>
+      <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -13653,79 +14713,79 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="14">
         <v>0.26806200000000002</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>0.23480899999999999</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>0.20340900000000001</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>0.17607600000000001</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>0.16811599999999999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>0.16084899999999999</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="4">
         <v>0.15415999999999999</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <v>0.13370399999999999</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="20">
         <v>0.13964799999999999</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="20">
         <v>0.14033000000000001</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="4">
         <v>8.4976899999999994E-2</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="4">
         <v>0.104424</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="4">
         <v>8.9335200000000003E-2</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="4">
         <v>9.9443900000000002E-2</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="4">
         <v>6.5980899999999995E-2</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="4">
         <v>7.3398099999999994E-2</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="4">
         <v>7.7146999999999993E-2</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="4">
         <v>8.0632899999999993E-2</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="4">
         <v>5.8905800000000001E-2</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="4">
         <v>6.5089900000000006E-2</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="4">
         <v>6.5995899999999996E-2</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="4">
         <v>6.5319100000000005E-2</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="4">
         <v>4.8057099999999998E-2</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="16">
         <v>4.19309E-2</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="22">
         <v>7.3562100000000005E-2</v>
       </c>
       <c r="AD3" s="11" t="s">
@@ -13745,79 +14805,79 @@
       <c r="D4" s="1">
         <v>26</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="14">
         <v>0.63755399999999995</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>0.56004900000000002</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>0.48469899999999999</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>0.45147500000000002</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>0.40013100000000001</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <v>0.40101799999999999</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="4">
         <v>0.38686599999999999</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="20">
         <v>0.38666600000000001</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="20">
         <v>0.37606000000000001</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="4">
         <v>0.36591600000000002</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="4">
         <v>0.33918700000000002</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="4">
         <v>0.313745</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="4">
         <v>0.30459799999999998</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="4">
         <v>0.28235700000000002</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="4">
         <v>0.27219199999999999</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="4">
         <v>0.23893</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="4">
         <v>0.270146</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="4">
         <v>0.23891100000000001</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="4">
         <v>0.23666200000000001</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="4">
         <v>0.22156600000000001</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="4">
         <v>0.19297800000000001</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="4">
         <v>0.179871</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="4">
         <v>0.19053700000000001</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="4">
         <v>0.18465400000000001</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="16">
         <v>0.17968899999999999</v>
       </c>
       <c r="AD4" s="11"/>
@@ -13835,79 +14895,79 @@
       <c r="D5" s="1">
         <v>27</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="14">
         <v>1.41307</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>1.24163</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>1.1001099999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>1.0152300000000001</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>0.97426800000000002</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>0.93550299999999997</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <v>0.89817400000000003</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="20">
         <v>0.92028600000000005</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="20">
         <v>0.93774800000000003</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="4">
         <v>0.91091599999999995</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <v>0.81839600000000001</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="4">
         <v>0.80512399999999995</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="4">
         <v>0.73049600000000003</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="4">
         <v>0.70413599999999998</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="4">
         <v>0.70472000000000001</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="4">
         <v>0.66849499999999995</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="4">
         <v>0.65779399999999999</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="4">
         <v>0.63009599999999999</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="4">
         <v>0.588727</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="4">
         <v>0.59212399999999998</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="4">
         <v>0.54845299999999997</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="4">
         <v>0.52249699999999999</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="4">
         <v>0.50392000000000003</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="16">
         <v>0.49556600000000001</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="22">
         <v>0.50579399999999997</v>
       </c>
       <c r="AD5" s="11"/>
@@ -13925,79 +14985,79 @@
       <c r="D6" s="1">
         <v>28</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
         <v>3.12338</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>2.6461000000000001</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>2.3447900000000002</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>2.2080799999999998</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>2.1073</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>2.0224500000000001</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>1.9564299999999999</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="20">
         <v>2.05078</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <v>2.0211600000000001</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="4">
         <v>1.97498</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="4">
         <v>1.7901499999999999</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="4">
         <v>1.6991700000000001</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="4">
         <v>1.6310100000000001</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="4">
         <v>1.5577799999999999</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="4">
         <v>1.5399099999999999</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="4">
         <v>1.4930099999999999</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="4">
         <v>1.45574</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="4">
         <v>1.4097</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="4">
         <v>1.3211299999999999</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="4">
         <v>1.3024199999999999</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="4">
         <v>1.2514700000000001</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="4">
         <v>1.2090799999999999</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="4">
         <v>1.17299</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="16">
         <v>1.1541600000000001</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="22">
         <v>1.16812</v>
       </c>
       <c r="AD6" s="11"/>
@@ -14015,79 +15075,79 @@
       <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="14">
         <v>6.2631100000000002</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>5.5221299999999998</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>4.9746800000000002</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>4.6733799999999999</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>4.3782800000000002</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <v>4.2577199999999999</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <v>4.1490299999999998</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="20">
         <v>4.1870000000000003</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="20">
         <v>4.2696899999999998</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="4">
         <v>4.0073800000000004</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="4">
         <v>3.75509</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="4">
         <v>3.58236</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="4">
         <v>3.4406400000000001</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="4">
         <v>3.3256899999999998</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="4">
         <v>3.2711000000000001</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="4">
         <v>3.12595</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="4">
         <v>3.1187999999999998</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="4">
         <v>3.0059</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="4">
         <v>2.8670499999999999</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="4">
         <v>2.7763</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="4">
         <v>2.6861899999999999</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="4">
         <v>2.6104099999999999</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="4">
         <v>2.53362</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="4">
         <v>2.5184500000000001</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="16">
         <v>2.5029699999999999</v>
       </c>
       <c r="AD7" s="11"/>
@@ -14105,79 +15165,79 @@
       <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="14">
         <v>12.978</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>11.542899999999999</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>10.3369</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>9.6135599999999997</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>9.2020099999999996</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <v>8.8790800000000001</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="4">
         <v>8.6301600000000001</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
         <v>8.6083200000000009</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="20">
         <v>8.7311599999999991</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="4">
         <v>8.2378099999999996</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="4">
         <v>7.8234000000000004</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="4">
         <v>7.4122000000000003</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="4">
         <v>7.1001700000000003</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="4">
         <v>7.1134599999999999</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="4">
         <v>6.9070299999999998</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="4">
         <v>6.55952</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="4">
         <v>6.4464699999999997</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="4">
         <v>6.1996099999999998</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="4">
         <v>5.9371200000000002</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="4">
         <v>5.7563500000000003</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="4">
         <v>5.5672100000000002</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="4">
         <v>5.42875</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="4">
         <v>5.3578900000000003</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="16">
         <v>5.2303300000000004</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="22">
         <v>5.2347900000000003</v>
       </c>
       <c r="AD8" s="11"/>
@@ -14195,79 +15255,79 @@
       <c r="D9" s="1">
         <v>31</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="14">
         <v>26.3963</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>23.539100000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>21.298300000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>19.875800000000002</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>19.052399999999999</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>18.234999999999999</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>17.7118</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>17.601600000000001</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="20">
         <v>17.937000000000001</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="4">
         <v>16.850300000000001</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="4">
         <v>15.9596</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="4">
         <v>15.213200000000001</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="4">
         <v>14.638199999999999</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="4">
         <v>15.4307</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="4">
         <v>13.7356</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="4">
         <v>13.3949</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="4">
         <v>13.1755</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="4">
         <v>12.692</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="4">
         <v>12.217499999999999</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="4">
         <v>11.833299999999999</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="4">
         <v>11.498200000000001</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="4">
         <v>11.193</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="4">
         <v>10.9361</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="4">
         <v>10.724299999999999</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="16">
         <v>10.588800000000001</v>
       </c>
       <c r="AD9" s="11"/>
@@ -14285,79 +15345,79 @@
       <c r="D10" s="1">
         <v>32</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="15">
         <v>53.617199999999997</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>47.952100000000002</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>43.995399999999997</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>40.406799999999997</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="5">
         <v>38.421799999999998</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <v>37.181100000000001</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <v>36.320399999999999</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="23">
         <v>37.648899999999998</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="23">
         <v>37.008699999999997</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="5">
         <v>34.437100000000001</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="5">
         <v>32.556800000000003</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="5">
         <v>31.040500000000002</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="5">
         <v>29.879899999999999</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="5">
         <v>28.876200000000001</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="5">
         <v>28.611000000000001</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="5">
         <v>27.299499999999998</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="5">
         <v>26.875399999999999</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="5">
         <v>25.845800000000001</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="5">
         <v>24.990100000000002</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="5">
         <v>24.087599999999998</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="5">
         <v>23.3781</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="5">
         <v>22.804500000000001</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="5">
         <v>22.317</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="5">
         <v>21.888500000000001</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="17">
         <v>21.650700000000001</v>
       </c>
       <c r="AD10" s="12"/>
@@ -14370,4 +15430,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4294967296</v>
+      </c>
+      <c r="B2">
+        <v>203280221</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>17.634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4294967296</v>
+      </c>
+      <c r="B3">
+        <v>203280221</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>17.037400000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4294967296</v>
+      </c>
+      <c r="B4">
+        <v>203280221</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>19.139600000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4294967296</v>
+      </c>
+      <c r="B5">
+        <v>203280221</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21.650700000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/project-2/results/spreadsheet/openmpi.xlsx
+++ b/project-2/results/spreadsheet/openmpi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="openmpi" sheetId="1" r:id="rId1"/>
@@ -649,6 +649,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,17 +672,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -762,7 +762,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -889,7 +888,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -925,7 +923,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1600,12 +1597,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214265856"/>
-        <c:axId val="213175104"/>
-        <c:axId val="213197440"/>
+        <c:axId val="214269952"/>
+        <c:axId val="213174528"/>
+        <c:axId val="213198080"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="214265856"/>
+        <c:axId val="214269952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213175104"/>
+        <c:crossAx val="213174528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1649,7 +1646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213175104"/>
+        <c:axId val="213174528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,12 +1683,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214265856"/>
+        <c:crossAx val="214269952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="213197440"/>
+        <c:axId val="213198080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213175104"/>
+        <c:crossAx val="213174528"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1743,6 +1740,743 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI on 4 computers (2 cores enabled)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4990561767898941E-2"/>
+          <c:y val="0.11543911949277945"/>
+          <c:w val="0.91934064667688076"/>
+          <c:h val="0.78266333992201587"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cpu'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cpu'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.202574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46238899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0061800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1344500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4715699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2749500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.092500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.7898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cpu'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cpu'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.124948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33415299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75929599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9073100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4438399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0496299999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.585100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cpu'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cpu'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.126997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30515300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69585300000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4769099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0956999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4298000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cpu'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cpu'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.8562999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.240649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55779699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.35947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5774300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0350299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.011100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.584800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cpu'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cpu'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14347199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.205155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50622100000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.10615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.35982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8794500000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.311199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.198599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cpu'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cpu'!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8925199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.169706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43610599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97115300000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0751200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4083199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9842399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.9953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cpu'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cpu'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.2406100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17446700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91961899999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1307700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9708299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2714400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.037400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="222076224"/>
+        <c:axId val="222073344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="222076224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50480727383043544"/>
+              <c:y val="0.92710454403076159"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222073344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="222073344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.4877382112931061E-3"/>
+              <c:y val="0.3825611613363144"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222076224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -2910,12 +3644,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214268928"/>
-        <c:axId val="213177408"/>
+        <c:axId val="214273024"/>
+        <c:axId val="213176832"/>
         <c:axId val="213199360"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="214268928"/>
+        <c:axId val="214273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +3685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213177408"/>
+        <c:crossAx val="213176832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2959,7 +3693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213177408"/>
+        <c:axId val="213176832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2996,7 +3730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214268928"/>
+        <c:crossAx val="214273024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3036,7 +3770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213177408"/>
+        <c:crossAx val="213176832"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3052,7 +3786,1238 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI on 4 computers (4 cores enabled)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2117966131336984E-2"/>
+          <c:y val="7.6245917325507423E-2"/>
+          <c:w val="0.89891030894349322"/>
+          <c:h val="0.81203200923713459"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.202156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54795400000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4264700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1725700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.735300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.1404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.081499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.17732999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46018900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.08948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2495799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7269299999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.946300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.240400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14124900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37641400000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86544399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8866499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.72323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7308599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.8194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.047699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.12825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35441400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78533600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8272600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.71658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3381600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.0207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.337299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.12872600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35894500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80824700000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7988500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.84307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4363799999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.0954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.565799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.116087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29639599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6149199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.28993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7739900000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.204599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.2593199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25866600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66867100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4891000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9281999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2568200000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.658300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.516200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.9006899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25300600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61670899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8680599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8241800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4772</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.048500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.5248999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.223051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.576326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3138099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.78965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8189700000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.102600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.328900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$N$3:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.1806000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21809200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54298599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2324900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6528399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.737299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.949100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.96891E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20147100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48910100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.16018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4825499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9454900000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0726</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.101199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$P$3:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.3552099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17655599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47106900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.34945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6757799999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.075600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cpu'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4cpu'!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.9418899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17577200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46311099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0476399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.27494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6124900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6100300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.139600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91652672"/>
+        <c:axId val="222070464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91652672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51216194862146691"/>
+              <c:y val="0.92924846715952769"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222070464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="222070464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="47"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.229056026159861E-3"/>
+              <c:y val="0.39214095183112296"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91652672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -5264,12 +7229,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213211648"/>
-        <c:axId val="214475328"/>
-        <c:axId val="214712320"/>
+        <c:axId val="172203008"/>
+        <c:axId val="214474752"/>
+        <c:axId val="214557312"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="213211648"/>
+        <c:axId val="172203008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5305,7 +7270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214475328"/>
+        <c:crossAx val="214474752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5313,7 +7278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214475328"/>
+        <c:axId val="214474752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5354,12 +7319,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213211648"/>
+        <c:crossAx val="172203008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="214712320"/>
+        <c:axId val="214557312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,7 +7359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214475328"/>
+        <c:crossAx val="214474752"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5410,7 +7375,2226 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI on 4 computers (8 cores enabled)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9602906100615748E-2"/>
+          <c:y val="0.11786431107876222"/>
+          <c:w val="0.84940850074349072"/>
+          <c:h val="0.75637221817861"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.26806200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63755399999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.12338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2631100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.3963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.617199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.23480899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56004900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6461000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5221299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.542899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.539100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.952100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.20340900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48469899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1001099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3447900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9746800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.3369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.298300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.995399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.17607600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45147500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0152300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2080799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6733799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6135599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.875800000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.406799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.16811599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40013100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97426800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3782800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2020099999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.052399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.421799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.16084899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40101799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93550299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0224500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2577199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8790800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.181100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.15415999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38686599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89817400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9564299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1490299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6301600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.7118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.320399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.13370399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38666600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92028600000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6083200000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.601600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.648899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.13964799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37606000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93774800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0211600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2696899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7311599999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.937000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.008699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$N$3:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36591600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91091599999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0073800000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2378099999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.850300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.437100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.4976899999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33918700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81839600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7901499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.75509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8234000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.556800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$P$3:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.104424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.313745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80512399999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6991700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.58236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4122000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.213200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.040500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.9335200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30459799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73049600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6310100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4406400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1001700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.638199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.879899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$R$3:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.9443900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28235700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70413599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5577799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3256899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1134599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.4307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.876200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$S$3:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.5980899999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27219199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5399099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2711000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9070299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.7356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.611000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$T$3:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.3398099999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66849499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4930099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.12595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.55952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.3949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.299499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$U$3:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.7146999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.270146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65779399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.45574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1187999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4464699999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.1755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.875399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$V$3:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0632899999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23891100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63009599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1996099999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.845800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$W$3:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8905800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23666200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.588727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3211299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8670499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9371200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.217499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.990100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$X$3:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.5089900000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22156600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59212399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3024199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7763</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7563500000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.833299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.087599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$Y$3:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.5995899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19297800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54845299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2514700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6861899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5672100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.498200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.3781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$Z$3:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.5319100000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.179871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52249699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2090799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6104099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.42875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.804500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$AA$3:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.8057099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19053700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50392000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.17299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.53362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3578900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.9361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$AB$3:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.19309E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18465400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49556600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1541600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5184500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2303300000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.724299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.888500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cpu'!$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cpu'!$AC$3:$AC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.3562100000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17968899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50579399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.16812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5029699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2347900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.588800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.650700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="240510656"/>
+        <c:axId val="214820544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="240510656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49806479513254753"/>
+              <c:y val="0.92861576126513601"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214820544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214820544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1241845719855438E-2"/>
+              <c:y val="0.42967401133681815"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="240510656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -5440,6 +9624,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5470,12 +9655,19 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Conclusions!$E$2:$E$5</c:f>
@@ -5553,6 +9745,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5590,6 +9783,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5680,6 +9874,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5715,6 +9941,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5745,6 +10003,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13678,7 +17968,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13702,15 +17992,15 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
@@ -13748,7 +18038,7 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>0.202574</v>
       </c>
       <c r="F3" s="3">
@@ -13757,7 +18047,7 @@
       <c r="G3" s="3">
         <v>0.126997</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="15">
         <v>6.8562999999999999E-2</v>
       </c>
       <c r="I3" s="3">
@@ -13766,10 +18056,10 @@
       <c r="J3" s="3">
         <v>5.8925199999999997E-2</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="14">
         <v>4.2406100000000002E-2</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13786,7 +18076,7 @@
       <c r="D4" s="1">
         <v>26</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>0.46238899999999999</v>
       </c>
       <c r="F4" s="4">
@@ -13801,13 +18091,13 @@
       <c r="I4" s="4">
         <v>0.205155</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="12">
         <v>0.169706</v>
       </c>
       <c r="K4" s="4">
         <v>0.17446700000000001</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -13822,7 +18112,7 @@
       <c r="D5" s="1">
         <v>27</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1.0061800000000001</v>
       </c>
       <c r="F5" s="4">
@@ -13840,10 +18130,10 @@
       <c r="J5" s="4">
         <v>0.43610599999999999</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <v>0.41058</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -13858,7 +18148,7 @@
       <c r="D6" s="1">
         <v>28</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>2.1344500000000002</v>
       </c>
       <c r="F6" s="4">
@@ -13876,10 +18166,10 @@
       <c r="J6" s="4">
         <v>0.97115300000000004</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <v>0.91961899999999996</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -13894,7 +18184,7 @@
       <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>4.4715699999999998</v>
       </c>
       <c r="F7" s="4">
@@ -13909,13 +18199,13 @@
       <c r="I7" s="4">
         <v>2.35982</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="12">
         <v>2.0751200000000001</v>
       </c>
       <c r="K7" s="4">
         <v>2.1307700000000001</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -13930,7 +18220,7 @@
       <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>9.2749500000000005</v>
       </c>
       <c r="F8" s="4">
@@ -13948,10 +18238,10 @@
       <c r="J8" s="4">
         <v>5.4083199999999998</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="12">
         <v>3.9708299999999999</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -13966,7 +18256,7 @@
       <c r="D9" s="1">
         <v>31</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>19.092500000000001</v>
       </c>
       <c r="F9" s="4">
@@ -13975,7 +18265,7 @@
       <c r="G9" s="4">
         <v>13.2432</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="16">
         <v>11.011100000000001</v>
       </c>
       <c r="I9" s="4">
@@ -13984,10 +18274,10 @@
       <c r="J9" s="4">
         <v>8.9842399999999998</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="12">
         <v>8.2714400000000001</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -14002,7 +18292,7 @@
       <c r="D10" s="1">
         <v>32</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>39.7898</v>
       </c>
       <c r="F10" s="5">
@@ -14020,10 +18310,10 @@
       <c r="J10" s="5">
         <v>18.9953</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="13">
         <v>17.037400000000002</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14040,7 +18330,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14064,21 +18354,21 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
@@ -14134,7 +18424,7 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>0.202156</v>
       </c>
       <c r="F3" s="3">
@@ -14146,7 +18436,7 @@
       <c r="H3" s="3">
         <v>0.12825</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="15">
         <v>0.12872600000000001</v>
       </c>
       <c r="J3" s="3">
@@ -14155,25 +18445,25 @@
       <c r="K3" s="3">
         <v>7.2593199999999997E-2</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="17">
         <v>6.9006899999999996E-2</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="15">
         <v>7.5248999999999996E-2</v>
       </c>
       <c r="N3" s="3">
         <v>4.1806000000000003E-2</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="15">
         <v>4.96891E-2</v>
       </c>
       <c r="P3" s="3">
         <v>7.3552099999999995E-2</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="14">
         <v>5.9418899999999997E-2</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14190,7 +18480,7 @@
       <c r="D4" s="1">
         <v>26</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>0.54795400000000005</v>
       </c>
       <c r="F4" s="4">
@@ -14202,7 +18492,7 @@
       <c r="H4" s="4">
         <v>0.35441400000000001</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="16">
         <v>0.35894500000000001</v>
       </c>
       <c r="J4" s="4">
@@ -14226,10 +18516,10 @@
       <c r="P4" s="4">
         <v>0.17655599999999999</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="12">
         <v>0.17577200000000001</v>
       </c>
-      <c r="R4" s="11"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -14244,7 +18534,7 @@
       <c r="D5" s="1">
         <v>27</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1.19336</v>
       </c>
       <c r="F5" s="4">
@@ -14256,7 +18546,7 @@
       <c r="H5" s="4">
         <v>0.78533600000000003</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="16">
         <v>0.80824700000000005</v>
       </c>
       <c r="J5" s="4">
@@ -14280,10 +18570,10 @@
       <c r="P5" s="4">
         <v>0.47106900000000002</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="12">
         <v>0.46311099999999999</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -14298,7 +18588,7 @@
       <c r="D6" s="1">
         <v>28</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>2.4264700000000001</v>
       </c>
       <c r="F6" s="4">
@@ -14334,10 +18624,10 @@
       <c r="P6" s="4">
         <v>1.08585</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="12">
         <v>1.0476399999999999</v>
       </c>
-      <c r="R6" s="11"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -14352,7 +18642,7 @@
       <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>5.1725700000000003</v>
       </c>
       <c r="F7" s="4">
@@ -14364,7 +18654,7 @@
       <c r="H7" s="4">
         <v>3.71658</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="16">
         <v>3.84307</v>
       </c>
       <c r="J7" s="4">
@@ -14388,10 +18678,10 @@
       <c r="P7" s="4">
         <v>2.34945</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="12">
         <v>2.27494</v>
       </c>
-      <c r="R7" s="11"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -14406,7 +18696,7 @@
       <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>10.735300000000001</v>
       </c>
       <c r="F8" s="4">
@@ -14418,7 +18708,7 @@
       <c r="H8" s="4">
         <v>7.3381600000000002</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="16">
         <v>7.4363799999999998</v>
       </c>
       <c r="J8" s="4">
@@ -14442,10 +18732,10 @@
       <c r="P8" s="4">
         <v>4.8201000000000001</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="12">
         <v>4.6124900000000002</v>
       </c>
-      <c r="R8" s="11"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -14460,7 +18750,7 @@
       <c r="D9" s="1">
         <v>31</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>22.1404</v>
       </c>
       <c r="F9" s="4">
@@ -14472,7 +18762,7 @@
       <c r="H9" s="4">
         <v>15.0207</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="16">
         <v>15.0954</v>
       </c>
       <c r="J9" s="4">
@@ -14496,10 +18786,10 @@
       <c r="P9" s="4">
         <v>9.6757799999999996</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="12">
         <v>9.6100300000000001</v>
       </c>
-      <c r="R9" s="11"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -14514,7 +18804,7 @@
       <c r="D10" s="1">
         <v>32</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>46.081499999999998</v>
       </c>
       <c r="F10" s="5">
@@ -14526,7 +18816,7 @@
       <c r="H10" s="5">
         <v>31.337299999999999</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="19">
         <v>31.565799999999999</v>
       </c>
       <c r="J10" s="5">
@@ -14550,10 +18840,10 @@
       <c r="P10" s="5">
         <v>20.075600000000001</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="13">
         <v>19.139600000000002</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14569,8 +18859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14594,33 +18884,33 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="6">
@@ -14713,7 +19003,7 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <v>0.26806200000000002</v>
       </c>
       <c r="F3" s="4">
@@ -14737,10 +19027,10 @@
       <c r="L3" s="4">
         <v>0.13370399999999999</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="16">
         <v>0.13964799999999999</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="16">
         <v>0.14033000000000001</v>
       </c>
       <c r="O3" s="4">
@@ -14782,13 +19072,13 @@
       <c r="AA3" s="4">
         <v>4.8057099999999998E-2</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="12">
         <v>4.19309E-2</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="18">
         <v>7.3562100000000005E-2</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14805,7 +19095,7 @@
       <c r="D4" s="1">
         <v>26</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>0.63755399999999995</v>
       </c>
       <c r="F4" s="4">
@@ -14826,10 +19116,10 @@
       <c r="K4" s="4">
         <v>0.38686599999999999</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="16">
         <v>0.38666600000000001</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="16">
         <v>0.37606000000000001</v>
       </c>
       <c r="N4" s="4">
@@ -14877,10 +19167,10 @@
       <c r="AB4" s="4">
         <v>0.18465400000000001</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="12">
         <v>0.17968899999999999</v>
       </c>
-      <c r="AD4" s="11"/>
+      <c r="AD4" s="22"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -14895,7 +19185,7 @@
       <c r="D5" s="1">
         <v>27</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1.41307</v>
       </c>
       <c r="F5" s="4">
@@ -14916,10 +19206,10 @@
       <c r="K5" s="4">
         <v>0.89817400000000003</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="16">
         <v>0.92028600000000005</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="16">
         <v>0.93774800000000003</v>
       </c>
       <c r="N5" s="4">
@@ -14964,13 +19254,13 @@
       <c r="AA5" s="4">
         <v>0.50392000000000003</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AB5" s="12">
         <v>0.49556600000000001</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5" s="18">
         <v>0.50579399999999997</v>
       </c>
-      <c r="AD5" s="11"/>
+      <c r="AD5" s="22"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -14985,7 +19275,7 @@
       <c r="D6" s="1">
         <v>28</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>3.12338</v>
       </c>
       <c r="F6" s="4">
@@ -15006,7 +19296,7 @@
       <c r="K6" s="4">
         <v>1.9564299999999999</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="16">
         <v>2.05078</v>
       </c>
       <c r="M6" s="4">
@@ -15054,13 +19344,13 @@
       <c r="AA6" s="4">
         <v>1.17299</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AB6" s="12">
         <v>1.1541600000000001</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="18">
         <v>1.16812</v>
       </c>
-      <c r="AD6" s="11"/>
+      <c r="AD6" s="22"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -15075,7 +19365,7 @@
       <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>6.2631100000000002</v>
       </c>
       <c r="F7" s="4">
@@ -15096,10 +19386,10 @@
       <c r="K7" s="4">
         <v>4.1490299999999998</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="16">
         <v>4.1870000000000003</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="16">
         <v>4.2696899999999998</v>
       </c>
       <c r="N7" s="4">
@@ -15147,10 +19437,10 @@
       <c r="AB7" s="4">
         <v>2.5184500000000001</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="12">
         <v>2.5029699999999999</v>
       </c>
-      <c r="AD7" s="11"/>
+      <c r="AD7" s="22"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -15165,7 +19455,7 @@
       <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>12.978</v>
       </c>
       <c r="F8" s="4">
@@ -15189,7 +19479,7 @@
       <c r="L8" s="4">
         <v>8.6083200000000009</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="16">
         <v>8.7311599999999991</v>
       </c>
       <c r="N8" s="4">
@@ -15234,13 +19524,13 @@
       <c r="AA8" s="4">
         <v>5.3578900000000003</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AB8" s="12">
         <v>5.2303300000000004</v>
       </c>
-      <c r="AC8" s="22">
+      <c r="AC8" s="18">
         <v>5.2347900000000003</v>
       </c>
-      <c r="AD8" s="11"/>
+      <c r="AD8" s="22"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -15255,7 +19545,7 @@
       <c r="D9" s="1">
         <v>31</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>26.3963</v>
       </c>
       <c r="F9" s="4">
@@ -15279,7 +19569,7 @@
       <c r="L9" s="4">
         <v>17.601600000000001</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="16">
         <v>17.937000000000001</v>
       </c>
       <c r="N9" s="4">
@@ -15327,10 +19617,10 @@
       <c r="AB9" s="4">
         <v>10.724299999999999</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="12">
         <v>10.588800000000001</v>
       </c>
-      <c r="AD9" s="11"/>
+      <c r="AD9" s="22"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -15345,7 +19635,7 @@
       <c r="D10" s="1">
         <v>32</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>53.617199999999997</v>
       </c>
       <c r="F10" s="5">
@@ -15366,10 +19656,10 @@
       <c r="K10" s="5">
         <v>36.320399999999999</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="19">
         <v>37.648899999999998</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="19">
         <v>37.008699999999997</v>
       </c>
       <c r="N10" s="5">
@@ -15417,10 +19707,10 @@
       <c r="AB10" s="5">
         <v>21.888500000000001</v>
       </c>
-      <c r="AC10" s="17">
+      <c r="AC10" s="13">
         <v>21.650700000000001</v>
       </c>
-      <c r="AD10" s="12"/>
+      <c r="AD10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15436,8 +19726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15505,7 +19795,7 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="12">
         <v>17.037400000000002</v>
       </c>
     </row>

--- a/project-2/results/spreadsheet/openmpi.xlsx
+++ b/project-2/results/spreadsheet/openmpi.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="openmpi" sheetId="1" r:id="rId1"/>
-    <sheet name="1cpu" sheetId="5" r:id="rId2"/>
-    <sheet name="2cpu" sheetId="2" r:id="rId3"/>
-    <sheet name="4cpu" sheetId="3" r:id="rId4"/>
-    <sheet name="8cpu" sheetId="4" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="1core" sheetId="5" r:id="rId2"/>
+    <sheet name="2cores" sheetId="2" r:id="rId3"/>
+    <sheet name="4cores" sheetId="3" r:id="rId4"/>
+    <sheet name="8cores" sheetId="4" r:id="rId5"/>
     <sheet name="Conclusions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -762,6 +762,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -775,7 +776,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1cpu'!$F$1</c:f>
+              <c:f>'1core'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -786,7 +787,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'1cpu'!$E$2:$E$9</c:f>
+              <c:f>'1core'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -819,7 +820,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1cpu'!$F$2:$F$9</c:f>
+              <c:f>'1core'!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -860,11 +861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213172224"/>
-        <c:axId val="213172800"/>
+        <c:axId val="212910080"/>
+        <c:axId val="212910656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213172224"/>
+        <c:axId val="212910080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -888,18 +889,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213172800"/>
+        <c:crossAx val="212910656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213172800"/>
+        <c:axId val="212910656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -923,13 +925,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213172224"/>
+        <c:crossAx val="212910080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -981,7 +984,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1020,7 +1022,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$E$2</c:f>
+              <c:f>'2cores'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1031,7 +1033,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1064,7 +1066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2cpu'!$E$3:$E$10</c:f>
+              <c:f>'2cores'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1102,7 +1104,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$F$2</c:f>
+              <c:f>'2cores'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1113,7 +1115,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1146,7 +1148,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2cpu'!$F$3:$F$10</c:f>
+              <c:f>'2cores'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1184,7 +1186,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$G$2</c:f>
+              <c:f>'2cores'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1195,7 +1197,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1228,7 +1230,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2cpu'!$G$3:$G$10</c:f>
+              <c:f>'2cores'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1266,7 +1268,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$H$2</c:f>
+              <c:f>'2cores'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1277,7 +1279,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1310,7 +1312,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2cpu'!$H$3:$H$10</c:f>
+              <c:f>'2cores'!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1348,7 +1350,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$I$2</c:f>
+              <c:f>'2cores'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1359,7 +1361,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1392,7 +1394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2cpu'!$I$3:$I$10</c:f>
+              <c:f>'2cores'!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1430,7 +1432,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$J$2</c:f>
+              <c:f>'2cores'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1441,7 +1443,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1474,7 +1476,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2cpu'!$J$3:$J$10</c:f>
+              <c:f>'2cores'!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1512,7 +1514,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$K$2</c:f>
+              <c:f>'2cores'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1523,7 +1525,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1556,7 +1558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2cpu'!$K$3:$K$10</c:f>
+              <c:f>'2cores'!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1597,12 +1599,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214269952"/>
-        <c:axId val="213174528"/>
-        <c:axId val="213198080"/>
+        <c:axId val="213980160"/>
+        <c:axId val="212912384"/>
+        <c:axId val="212935936"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="214269952"/>
+        <c:axId val="213980160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213174528"/>
+        <c:crossAx val="212912384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1646,7 +1648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213174528"/>
+        <c:axId val="212912384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,12 +1685,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214269952"/>
+        <c:crossAx val="213980160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="213198080"/>
+        <c:axId val="212935936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213174528"/>
+        <c:crossAx val="212912384"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1774,7 +1776,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1798,7 +1799,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$E$2</c:f>
+              <c:f>'2cores'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1809,7 +1810,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1842,7 +1843,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2cpu'!$E$3:$E$10</c:f>
+              <c:f>'2cores'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1880,7 +1881,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$F$2</c:f>
+              <c:f>'2cores'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1891,7 +1892,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1924,7 +1925,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2cpu'!$F$3:$F$10</c:f>
+              <c:f>'2cores'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1962,7 +1963,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$G$2</c:f>
+              <c:f>'2cores'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1973,7 +1974,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2006,7 +2007,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2cpu'!$G$3:$G$10</c:f>
+              <c:f>'2cores'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2044,7 +2045,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$H$2</c:f>
+              <c:f>'2cores'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2055,7 +2056,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2088,7 +2089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2cpu'!$H$3:$H$10</c:f>
+              <c:f>'2cores'!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2126,7 +2127,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$I$2</c:f>
+              <c:f>'2cores'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2137,7 +2138,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2170,7 +2171,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2cpu'!$I$3:$I$10</c:f>
+              <c:f>'2cores'!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2208,7 +2209,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$J$2</c:f>
+              <c:f>'2cores'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2219,7 +2220,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2252,7 +2253,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2cpu'!$J$3:$J$10</c:f>
+              <c:f>'2cores'!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2290,7 +2291,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2cpu'!$K$2</c:f>
+              <c:f>'2cores'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2301,7 +2302,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2cpu'!$D$3:$D$10</c:f>
+              <c:f>'2cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2334,7 +2335,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2cpu'!$K$3:$K$10</c:f>
+              <c:f>'2cores'!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2375,11 +2376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222076224"/>
-        <c:axId val="222073344"/>
+        <c:axId val="212914688"/>
+        <c:axId val="212915264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222076224"/>
+        <c:axId val="212914688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -2417,12 +2418,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222073344"/>
+        <c:crossAx val="212915264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222073344"/>
+        <c:axId val="212915264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222076224"/>
+        <c:crossAx val="212914688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2511,7 +2512,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2550,7 +2550,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$E$2</c:f>
+              <c:f>'4cores'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2561,7 +2561,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2594,7 +2594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$E$3:$E$10</c:f>
+              <c:f>'4cores'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2632,7 +2632,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$F$2</c:f>
+              <c:f>'4cores'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2643,7 +2643,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2676,7 +2676,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$F$3:$F$10</c:f>
+              <c:f>'4cores'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2714,7 +2714,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$G$2</c:f>
+              <c:f>'4cores'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2725,7 +2725,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2758,7 +2758,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$G$3:$G$10</c:f>
+              <c:f>'4cores'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2796,7 +2796,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$H$2</c:f>
+              <c:f>'4cores'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2807,7 +2807,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2840,7 +2840,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$H$3:$H$10</c:f>
+              <c:f>'4cores'!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2878,7 +2878,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$I$2</c:f>
+              <c:f>'4cores'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2889,7 +2889,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2922,7 +2922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$I$3:$I$10</c:f>
+              <c:f>'4cores'!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2960,7 +2960,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$J$2</c:f>
+              <c:f>'4cores'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2971,7 +2971,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3004,7 +3004,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$J$3:$J$10</c:f>
+              <c:f>'4cores'!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3042,7 +3042,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$K$2</c:f>
+              <c:f>'4cores'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3053,7 +3053,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3086,7 +3086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$K$3:$K$10</c:f>
+              <c:f>'4cores'!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3124,7 +3124,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$L$2</c:f>
+              <c:f>'4cores'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3135,7 +3135,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3168,7 +3168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$L$3:$L$10</c:f>
+              <c:f>'4cores'!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3206,7 +3206,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$M$2</c:f>
+              <c:f>'4cores'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3222,7 +3222,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3255,7 +3255,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$M$3:$M$10</c:f>
+              <c:f>'4cores'!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3293,7 +3293,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$N$2</c:f>
+              <c:f>'4cores'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3309,7 +3309,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3342,7 +3342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$N$3:$N$10</c:f>
+              <c:f>'4cores'!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3380,7 +3380,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$O$2</c:f>
+              <c:f>'4cores'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3396,7 +3396,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3429,7 +3429,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$O$3:$O$10</c:f>
+              <c:f>'4cores'!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3467,7 +3467,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$P$2</c:f>
+              <c:f>'4cores'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3483,7 +3483,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3516,7 +3516,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$P$3:$P$10</c:f>
+              <c:f>'4cores'!$P$3:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3554,7 +3554,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$Q$2</c:f>
+              <c:f>'4cores'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3570,7 +3570,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3603,7 +3603,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4cpu'!$Q$3:$Q$10</c:f>
+              <c:f>'4cores'!$Q$3:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3644,12 +3644,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214273024"/>
-        <c:axId val="213176832"/>
-        <c:axId val="213199360"/>
+        <c:axId val="214294528"/>
+        <c:axId val="212917568"/>
+        <c:axId val="212937216"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="214273024"/>
+        <c:axId val="214294528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,7 +3685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213176832"/>
+        <c:crossAx val="212917568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3693,7 +3693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213176832"/>
+        <c:axId val="212917568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3730,12 +3730,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214273024"/>
+        <c:crossAx val="214294528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="213199360"/>
+        <c:axId val="212937216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213176832"/>
+        <c:crossAx val="212917568"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3821,7 +3821,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3845,7 +3844,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$E$2</c:f>
+              <c:f>'4cores'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3856,7 +3855,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3889,7 +3888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$E$3:$E$10</c:f>
+              <c:f>'4cores'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3927,7 +3926,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$F$2</c:f>
+              <c:f>'4cores'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3938,7 +3937,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3971,7 +3970,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$F$3:$F$10</c:f>
+              <c:f>'4cores'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4009,7 +4008,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$G$2</c:f>
+              <c:f>'4cores'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4020,7 +4019,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4053,7 +4052,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$G$3:$G$10</c:f>
+              <c:f>'4cores'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4091,7 +4090,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$H$2</c:f>
+              <c:f>'4cores'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4102,7 +4101,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4135,7 +4134,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$H$3:$H$10</c:f>
+              <c:f>'4cores'!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4173,7 +4172,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$I$2</c:f>
+              <c:f>'4cores'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4184,7 +4183,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4217,7 +4216,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$I$3:$I$10</c:f>
+              <c:f>'4cores'!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4255,7 +4254,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$J$2</c:f>
+              <c:f>'4cores'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4266,7 +4265,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4299,7 +4298,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$J$3:$J$10</c:f>
+              <c:f>'4cores'!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4337,7 +4336,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$K$2</c:f>
+              <c:f>'4cores'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4348,7 +4347,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4381,7 +4380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$K$3:$K$10</c:f>
+              <c:f>'4cores'!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4419,7 +4418,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$L$2</c:f>
+              <c:f>'4cores'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4430,7 +4429,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4463,7 +4462,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$L$3:$L$10</c:f>
+              <c:f>'4cores'!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4501,7 +4500,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$M$2</c:f>
+              <c:f>'4cores'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4512,7 +4511,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4545,7 +4544,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$M$3:$M$10</c:f>
+              <c:f>'4cores'!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4583,7 +4582,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$N$2</c:f>
+              <c:f>'4cores'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4594,7 +4593,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4627,7 +4626,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$N$3:$N$10</c:f>
+              <c:f>'4cores'!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4665,7 +4664,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$O$2</c:f>
+              <c:f>'4cores'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4676,7 +4675,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4709,7 +4708,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$O$3:$O$10</c:f>
+              <c:f>'4cores'!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4747,7 +4746,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$P$2</c:f>
+              <c:f>'4cores'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4758,7 +4757,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4791,7 +4790,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$P$3:$P$10</c:f>
+              <c:f>'4cores'!$P$3:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4829,7 +4828,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4cpu'!$Q$2</c:f>
+              <c:f>'4cores'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4840,7 +4839,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'4cpu'!$D$3:$D$10</c:f>
+              <c:f>'4cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4873,7 +4872,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4cpu'!$Q$3:$Q$10</c:f>
+              <c:f>'4cores'!$Q$3:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4914,11 +4913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91652672"/>
-        <c:axId val="222070464"/>
+        <c:axId val="214166336"/>
+        <c:axId val="214166912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91652672"/>
+        <c:axId val="214166336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -4956,12 +4955,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222070464"/>
+        <c:crossAx val="214166912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222070464"/>
+        <c:axId val="214166912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="47"/>
@@ -5000,7 +4999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91652672"/>
+        <c:crossAx val="214166336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5052,7 +5051,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5091,7 +5089,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$E$2</c:f>
+              <c:f>'8cores'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5102,7 +5100,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5135,7 +5133,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$E$3:$E$10</c:f>
+              <c:f>'8cores'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5173,7 +5171,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$F$2</c:f>
+              <c:f>'8cores'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5184,7 +5182,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5217,7 +5215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$F$3:$F$10</c:f>
+              <c:f>'8cores'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5255,7 +5253,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$G$2</c:f>
+              <c:f>'8cores'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5266,7 +5264,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5299,7 +5297,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$G$3:$G$10</c:f>
+              <c:f>'8cores'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5337,7 +5335,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$H$2</c:f>
+              <c:f>'8cores'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5348,7 +5346,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5381,7 +5379,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$H$3:$H$10</c:f>
+              <c:f>'8cores'!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5419,7 +5417,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$I$2</c:f>
+              <c:f>'8cores'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5430,7 +5428,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5463,7 +5461,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$I$3:$I$10</c:f>
+              <c:f>'8cores'!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5501,7 +5499,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$J$2</c:f>
+              <c:f>'8cores'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5512,7 +5510,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5545,7 +5543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$J$3:$J$10</c:f>
+              <c:f>'8cores'!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5583,7 +5581,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$K$2</c:f>
+              <c:f>'8cores'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5594,7 +5592,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5627,7 +5625,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$K$3:$K$10</c:f>
+              <c:f>'8cores'!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5665,7 +5663,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$L$2</c:f>
+              <c:f>'8cores'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5676,7 +5674,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5709,7 +5707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$L$3:$L$10</c:f>
+              <c:f>'8cores'!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5747,7 +5745,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$M$2</c:f>
+              <c:f>'8cores'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5763,7 +5761,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5796,7 +5794,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$M$3:$M$10</c:f>
+              <c:f>'8cores'!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5834,7 +5832,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$N$2</c:f>
+              <c:f>'8cores'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5850,7 +5848,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5883,7 +5881,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$N$3:$N$10</c:f>
+              <c:f>'8cores'!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5921,7 +5919,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$O$2</c:f>
+              <c:f>'8cores'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5937,7 +5935,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5970,7 +5968,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$O$3:$O$10</c:f>
+              <c:f>'8cores'!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6008,7 +6006,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$P$2</c:f>
+              <c:f>'8cores'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6024,7 +6022,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6057,7 +6055,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$P$3:$P$10</c:f>
+              <c:f>'8cores'!$P$3:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6095,7 +6093,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$Q$2</c:f>
+              <c:f>'8cores'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6111,7 +6109,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6144,7 +6142,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$Q$3:$Q$10</c:f>
+              <c:f>'8cores'!$Q$3:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6182,7 +6180,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$R$2</c:f>
+              <c:f>'8cores'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6198,7 +6196,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6231,7 +6229,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$R$3:$R$10</c:f>
+              <c:f>'8cores'!$R$3:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6269,7 +6267,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$S$2</c:f>
+              <c:f>'8cores'!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6285,7 +6283,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6318,7 +6316,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$S$3:$S$10</c:f>
+              <c:f>'8cores'!$S$3:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6356,7 +6354,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$T$2</c:f>
+              <c:f>'8cores'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6372,7 +6370,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6405,7 +6403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$T$3:$T$10</c:f>
+              <c:f>'8cores'!$T$3:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6443,7 +6441,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$U$2</c:f>
+              <c:f>'8cores'!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6459,7 +6457,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6492,7 +6490,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$U$3:$U$10</c:f>
+              <c:f>'8cores'!$U$3:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6530,7 +6528,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$V$2</c:f>
+              <c:f>'8cores'!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6546,7 +6544,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6579,7 +6577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$V$3:$V$10</c:f>
+              <c:f>'8cores'!$V$3:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6617,7 +6615,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$W$2</c:f>
+              <c:f>'8cores'!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6633,7 +6631,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6666,7 +6664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$W$3:$W$10</c:f>
+              <c:f>'8cores'!$W$3:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6704,7 +6702,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$X$2</c:f>
+              <c:f>'8cores'!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6720,7 +6718,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6753,7 +6751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$X$3:$X$10</c:f>
+              <c:f>'8cores'!$X$3:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6791,7 +6789,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$Y$2</c:f>
+              <c:f>'8cores'!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6807,7 +6805,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6840,7 +6838,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$Y$3:$Y$10</c:f>
+              <c:f>'8cores'!$Y$3:$Y$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6878,7 +6876,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$Z$2</c:f>
+              <c:f>'8cores'!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6894,7 +6892,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6927,7 +6925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$Z$3:$Z$10</c:f>
+              <c:f>'8cores'!$Z$3:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6965,7 +6963,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$AA$2</c:f>
+              <c:f>'8cores'!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6981,7 +6979,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7014,7 +7012,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$AA$3:$AA$10</c:f>
+              <c:f>'8cores'!$AA$3:$AA$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7052,7 +7050,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$AB$2</c:f>
+              <c:f>'8cores'!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7068,7 +7066,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7101,7 +7099,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$AB$3:$AB$10</c:f>
+              <c:f>'8cores'!$AB$3:$AB$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7139,7 +7137,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$AC$2</c:f>
+              <c:f>'8cores'!$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7155,7 +7153,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7188,7 +7186,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8cpu'!$AC$3:$AC$10</c:f>
+              <c:f>'8cores'!$AC$3:$AC$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7229,12 +7227,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172203008"/>
-        <c:axId val="214474752"/>
-        <c:axId val="214557312"/>
+        <c:axId val="175074304"/>
+        <c:axId val="214170368"/>
+        <c:axId val="214393472"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="172203008"/>
+        <c:axId val="175074304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7270,7 +7268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214474752"/>
+        <c:crossAx val="214170368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7278,7 +7276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214474752"/>
+        <c:axId val="214170368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7319,12 +7317,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172203008"/>
+        <c:crossAx val="175074304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="214557312"/>
+        <c:axId val="214393472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7359,7 +7357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214474752"/>
+        <c:crossAx val="214170368"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -7410,7 +7408,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7434,7 +7431,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$E$2</c:f>
+              <c:f>'8cores'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7445,7 +7442,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7478,7 +7475,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$E$3:$E$10</c:f>
+              <c:f>'8cores'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7516,7 +7513,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$F$2</c:f>
+              <c:f>'8cores'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7527,7 +7524,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7560,7 +7557,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$F$3:$F$10</c:f>
+              <c:f>'8cores'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7598,7 +7595,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$G$2</c:f>
+              <c:f>'8cores'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7609,7 +7606,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7642,7 +7639,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$G$3:$G$10</c:f>
+              <c:f>'8cores'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7680,7 +7677,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$H$2</c:f>
+              <c:f>'8cores'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7691,7 +7688,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7724,7 +7721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$H$3:$H$10</c:f>
+              <c:f>'8cores'!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7762,7 +7759,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$I$2</c:f>
+              <c:f>'8cores'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7773,7 +7770,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7806,7 +7803,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$I$3:$I$10</c:f>
+              <c:f>'8cores'!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7844,7 +7841,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$J$2</c:f>
+              <c:f>'8cores'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7855,7 +7852,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7888,7 +7885,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$J$3:$J$10</c:f>
+              <c:f>'8cores'!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7926,7 +7923,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$K$2</c:f>
+              <c:f>'8cores'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7937,7 +7934,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7970,7 +7967,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$K$3:$K$10</c:f>
+              <c:f>'8cores'!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8008,7 +8005,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$L$2</c:f>
+              <c:f>'8cores'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8019,7 +8016,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8052,7 +8049,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$L$3:$L$10</c:f>
+              <c:f>'8cores'!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8090,7 +8087,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$M$2</c:f>
+              <c:f>'8cores'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8101,7 +8098,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8134,7 +8131,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$M$3:$M$10</c:f>
+              <c:f>'8cores'!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8172,7 +8169,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$N$2</c:f>
+              <c:f>'8cores'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8183,7 +8180,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8216,7 +8213,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$N$3:$N$10</c:f>
+              <c:f>'8cores'!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8254,7 +8251,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$O$2</c:f>
+              <c:f>'8cores'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8265,7 +8262,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8298,7 +8295,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$O$3:$O$10</c:f>
+              <c:f>'8cores'!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8336,7 +8333,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$P$2</c:f>
+              <c:f>'8cores'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8347,7 +8344,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8380,7 +8377,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$P$3:$P$10</c:f>
+              <c:f>'8cores'!$P$3:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8418,7 +8415,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$Q$2</c:f>
+              <c:f>'8cores'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8429,7 +8426,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8462,7 +8459,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$Q$3:$Q$10</c:f>
+              <c:f>'8cores'!$Q$3:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8500,7 +8497,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$R$2</c:f>
+              <c:f>'8cores'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8511,7 +8508,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8544,7 +8541,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$R$3:$R$10</c:f>
+              <c:f>'8cores'!$R$3:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8582,7 +8579,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$S$2</c:f>
+              <c:f>'8cores'!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8593,7 +8590,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8626,7 +8623,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$S$3:$S$10</c:f>
+              <c:f>'8cores'!$S$3:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8664,7 +8661,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$T$2</c:f>
+              <c:f>'8cores'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8675,7 +8672,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8708,7 +8705,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$T$3:$T$10</c:f>
+              <c:f>'8cores'!$T$3:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8746,7 +8743,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$U$2</c:f>
+              <c:f>'8cores'!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8757,7 +8754,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8790,7 +8787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$U$3:$U$10</c:f>
+              <c:f>'8cores'!$U$3:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8828,7 +8825,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$V$2</c:f>
+              <c:f>'8cores'!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8839,7 +8836,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8872,7 +8869,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$V$3:$V$10</c:f>
+              <c:f>'8cores'!$V$3:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8910,7 +8907,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$W$2</c:f>
+              <c:f>'8cores'!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8921,7 +8918,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8954,7 +8951,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$W$3:$W$10</c:f>
+              <c:f>'8cores'!$W$3:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8992,7 +8989,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$X$2</c:f>
+              <c:f>'8cores'!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9003,7 +9000,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9036,7 +9033,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$X$3:$X$10</c:f>
+              <c:f>'8cores'!$X$3:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9074,7 +9071,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$Y$2</c:f>
+              <c:f>'8cores'!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9085,7 +9082,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9118,7 +9115,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$Y$3:$Y$10</c:f>
+              <c:f>'8cores'!$Y$3:$Y$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9156,7 +9153,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$Z$2</c:f>
+              <c:f>'8cores'!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9167,7 +9164,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9200,7 +9197,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$Z$3:$Z$10</c:f>
+              <c:f>'8cores'!$Z$3:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9238,7 +9235,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$AA$2</c:f>
+              <c:f>'8cores'!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9249,7 +9246,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9282,7 +9279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$AA$3:$AA$10</c:f>
+              <c:f>'8cores'!$AA$3:$AA$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9320,7 +9317,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$AB$2</c:f>
+              <c:f>'8cores'!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9331,7 +9328,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9364,7 +9361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$AB$3:$AB$10</c:f>
+              <c:f>'8cores'!$AB$3:$AB$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9402,7 +9399,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8cpu'!$AC$2</c:f>
+              <c:f>'8cores'!$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9413,7 +9410,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'8cpu'!$D$3:$D$10</c:f>
+              <c:f>'8cores'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9446,7 +9443,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8cpu'!$AC$3:$AC$10</c:f>
+              <c:f>'8cores'!$AC$3:$AC$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9487,11 +9484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240510656"/>
-        <c:axId val="214820544"/>
+        <c:axId val="214681280"/>
+        <c:axId val="214681856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240510656"/>
+        <c:axId val="214681280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -9529,12 +9526,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214820544"/>
+        <c:crossAx val="214681856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214820544"/>
+        <c:axId val="214681856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="55"/>
@@ -9577,7 +9574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240510656"/>
+        <c:crossAx val="214681280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9719,11 +9716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="213209088"/>
-        <c:axId val="214477632"/>
+        <c:axId val="213981184"/>
+        <c:axId val="214683584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213209088"/>
+        <c:axId val="213981184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9752,7 +9749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214477632"/>
+        <c:crossAx val="214683584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9760,7 +9757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214477632"/>
+        <c:axId val="214683584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9790,7 +9787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213209088"/>
+        <c:crossAx val="213981184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10368,7 +10365,7 @@
   <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17768,7 +17765,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project-2/results/spreadsheet/openmpi.xlsx
+++ b/project-2/results/spreadsheet/openmpi.xlsx
@@ -861,11 +861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212910080"/>
-        <c:axId val="212910656"/>
+        <c:axId val="213177408"/>
+        <c:axId val="213177984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212910080"/>
+        <c:axId val="213177408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -896,12 +896,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212910656"/>
+        <c:crossAx val="213177984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212910656"/>
+        <c:axId val="213177984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -932,7 +932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212910080"/>
+        <c:crossAx val="213177408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -984,6 +984,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1599,12 +1600,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213980160"/>
-        <c:axId val="212912384"/>
-        <c:axId val="212935936"/>
+        <c:axId val="216982528"/>
+        <c:axId val="213179712"/>
+        <c:axId val="217444992"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="213980160"/>
+        <c:axId val="216982528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212912384"/>
+        <c:crossAx val="213179712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1648,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212912384"/>
+        <c:axId val="213179712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,12 +1686,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213980160"/>
+        <c:crossAx val="216982528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="212935936"/>
+        <c:axId val="217444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212912384"/>
+        <c:crossAx val="213179712"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1776,6 +1777,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2376,11 +2378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212914688"/>
-        <c:axId val="212915264"/>
+        <c:axId val="216901312"/>
+        <c:axId val="216901888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212914688"/>
+        <c:axId val="216901312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -2418,12 +2420,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212915264"/>
+        <c:crossAx val="216901888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212915264"/>
+        <c:axId val="216901888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212914688"/>
+        <c:crossAx val="216901312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2512,6 +2514,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3644,12 +3647,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214294528"/>
-        <c:axId val="212917568"/>
-        <c:axId val="212937216"/>
+        <c:axId val="217935872"/>
+        <c:axId val="216904192"/>
+        <c:axId val="217446272"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="214294528"/>
+        <c:axId val="217935872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,7 +3688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212917568"/>
+        <c:crossAx val="216904192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3693,7 +3696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212917568"/>
+        <c:axId val="216904192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3730,12 +3733,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214294528"/>
+        <c:crossAx val="217935872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="212937216"/>
+        <c:axId val="217446272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212917568"/>
+        <c:crossAx val="216904192"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3821,6 +3824,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4913,11 +4917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214166336"/>
-        <c:axId val="214166912"/>
+        <c:axId val="218038272"/>
+        <c:axId val="218038848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214166336"/>
+        <c:axId val="218038272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -4955,12 +4959,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214166912"/>
+        <c:crossAx val="218038848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214166912"/>
+        <c:axId val="218038848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="47"/>
@@ -4999,7 +5003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214166336"/>
+        <c:crossAx val="218038272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5051,6 +5055,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7227,12 +7232,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175074304"/>
-        <c:axId val="214170368"/>
-        <c:axId val="214393472"/>
+        <c:axId val="216981504"/>
+        <c:axId val="218042304"/>
+        <c:axId val="217444352"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="175074304"/>
+        <c:axId val="216981504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7268,7 +7273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214170368"/>
+        <c:crossAx val="218042304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7276,7 +7281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214170368"/>
+        <c:axId val="218042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7317,12 +7322,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175074304"/>
+        <c:crossAx val="216981504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="214393472"/>
+        <c:axId val="217444352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7357,7 +7362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214170368"/>
+        <c:crossAx val="218042304"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -7408,6 +7413,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9484,11 +9490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214681280"/>
-        <c:axId val="214681856"/>
+        <c:axId val="218044608"/>
+        <c:axId val="218045184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214681280"/>
+        <c:axId val="218044608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -9526,12 +9532,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214681856"/>
+        <c:crossAx val="218045184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214681856"/>
+        <c:axId val="218045184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="55"/>
@@ -9574,7 +9580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214681280"/>
+        <c:crossAx val="218044608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9716,11 +9722,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="213981184"/>
-        <c:axId val="214683584"/>
+        <c:axId val="218375680"/>
+        <c:axId val="218694208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213981184"/>
+        <c:axId val="218375680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9749,7 +9755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214683584"/>
+        <c:crossAx val="218694208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9757,7 +9763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214683584"/>
+        <c:axId val="218694208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9787,7 +9793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213981184"/>
+        <c:crossAx val="218375680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17765,7 +17771,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17964,8 +17970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
